--- a/medicine/Autisme/Everything's_Gonna_Be_Okay/Everything's_Gonna_Be_Okay.xlsx
+++ b/medicine/Autisme/Everything's_Gonna_Be_Okay/Everything's_Gonna_Be_Okay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Everything%27s_Gonna_Be_Okay</t>
+          <t>Everything's_Gonna_Be_Okay</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Everything's Gonna Be Okay est une série télévisée comique américaine créée par le comédien australien Josh Thomas. Thomas a précédemment créé, écrit, réalisé et joué dans la série primée semi-autobiographique Please Like Me[1]. Everything's Gonna Be Okay a été créé sur Freeform le 16 janvier 2020[2]. En mai 2020, la série a été renouvelée pour une deuxième saison qui est sortie le 8 avril 2021[3],[4]. En août 2021, la série a été annulée après deux saisons[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Everything's Gonna Be Okay est une série télévisée comique américaine créée par le comédien australien Josh Thomas. Thomas a précédemment créé, écrit, réalisé et joué dans la série primée semi-autobiographique Please Like Me. Everything's Gonna Be Okay a été créé sur Freeform le 16 janvier 2020. En mai 2020, la série a été renouvelée pour une deuxième saison qui est sortie le 8 avril 2021,. En août 2021, la série a été annulée après deux saisons.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Everything%27s_Gonna_Be_Okay</t>
+          <t>Everything's_Gonna_Be_Okay</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nicholas, un Australien d'une vingtaine d'années, rend visite à son père américain et à ses deux demi-sœurs adolescentes à Los Angeles. Lors de sa visite, il apprend que leur père est en phase terminale d’un cancer et souhaite que Nicholas devienne le tuteur de Geneviève et Mathilde, car leur mère est déjà décédée[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nicholas, un Australien d'une vingtaine d'années, rend visite à son père américain et à ses deux demi-sœurs adolescentes à Los Angeles. Lors de sa visite, il apprend que leur père est en phase terminale d’un cancer et souhaite que Nicholas devienne le tuteur de Geneviève et Mathilde, car leur mère est déjà décédée.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Everything%27s_Gonna_Be_Okay</t>
+          <t>Everything's_Gonna_Be_Okay</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,13 +558,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Principal
-Josh Thomas (VF : Hugo Brunswick) dans le rôle de Nicholas Moss: un entomologiste australien gay et névrosé dans la vingtaine. À la fin de la deuxième saison, il est diagnostiqué autiste[6].
-Kayla Cromer (VF : Claire Baradat) dans le rôle de Matilda Moss : la demi-sœur autiste de Nicholas qui a 17 ans au début de la série. Elle est une compositrice classique douée[7]. Cromer elle-même est autiste, ce qui, selon elle, l'a aidée à décrocher le rôle bien qu’elle ait auditionné sans agent[8].
-Adam Faison dans le rôle d’Alex : le petit ami de Nicholas pendant les deux saisons[9].
-Maeve Press dans le rôle de Genevieve Moss : la demi-sœur de Nicholas, qui a une passion pour l’écriture. Elle a 14 ans au début de la série[6],[7].
-Récurrent
-Lillian Carrier (VF : Soizic Fonjallaz) dans le rôle de Drea, la petite amie asexuelle et autiste de Matilda, et plus tard sa femme
+          <t>Principal</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Josh Thomas (VF : Hugo Brunswick) dans le rôle de Nicholas Moss: un entomologiste australien gay et névrosé dans la vingtaine. À la fin de la deuxième saison, il est diagnostiqué autiste.
+Kayla Cromer (VF : Claire Baradat) dans le rôle de Matilda Moss : la demi-sœur autiste de Nicholas qui a 17 ans au début de la série. Elle est une compositrice classique douée. Cromer elle-même est autiste, ce qui, selon elle, l'a aidée à décrocher le rôle bien qu’elle ait auditionné sans agent.
+Adam Faison dans le rôle d’Alex : le petit ami de Nicholas pendant les deux saisons.
+Maeve Press dans le rôle de Genevieve Moss : la demi-sœur de Nicholas, qui a une passion pour l’écriture. Elle a 14 ans au début de la série,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Everything's_Gonna_Be_Okay</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Everything%27s_Gonna_Be_Okay</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Récurrent</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lillian Carrier (VF : Soizic Fonjallaz) dans le rôle de Drea, la petite amie asexuelle et autiste de Matilda, et plus tard sa femme
 Lori Mae Hernandez dans le rôle de Barb, l'amie de Geneviève
 Vivienne Walsh dans le rôle de Penny, la mère de Nicholas qui passe parfois des appels vidéo depuis l'Australie
 Charlie Evans (VF : Arthur Raynal) dans le rôle de Leonard, l'intérêt amoureux de Geneviève
@@ -566,36 +619,10 @@
 Richard Kind (VF : Bernard Bollet) dans le rôle de Tobias, le père de Drea (saison 2)
 Christian Valderrama dans le rôle d’Oscar, l'intérêt amoureux de Geneviève (saison 2)
 CJ Jones dans le rôle d’Eric, le père sourd d'Alex (saison 2)
- Source et légende : version française (VF) sur RS Doublage[10]
+ Source et légende : version française (VF) sur RS Doublage
 </t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Everything%27s_Gonna_Be_Okay</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Autisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Everything%27s_Gonna_Be_Okay</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Épisodes</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,7 +630,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Everything%27s_Gonna_Be_Okay</t>
+          <t>Everything's_Gonna_Be_Okay</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,14 +645,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Everything's_Gonna_Be_Okay</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Everything%27s_Gonna_Be_Okay</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Réception</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Réponse critique
-Sur Rotten Tomatoes, la série a un taux d'approbation de 94% basé sur 17 critiques. Le consensus critique du site Web est : « Doux, poignant et chaleureusement plein d'esprit , Everything's Gonna Be Okay est aussi généreux et nuancé que ses personnages sont bien écris. »[11] Sur Metacritic, il a une note moyenne pondérée de 80 sur 100, basée sur 6 critiques, indiquant « des critiques généralement favorables »[12]. Steve Greene d’IndieWire, passant en revue la première saison, a fait l'éloge de l'empathie narrative de la série et des « instants de grâce » entre les chapitres les plus typiques de la série[13]. Luke Buckmaster de The Guardian était plus prudent, déclarant que la série « manque sa cible »[14] et n'atteint son rythme de croisière qu'après le premier épisode de la saison. Lors de la première des épisodes "Gray Bird Grasshopper" et "Jungle Centipede", le critique Alex Reif de laughingplace.com a fourni des commentaires positifs, notant « ... la force de la série est qu'elle aborde des problèmes graves d’une manière comique », et que la série est « une bouffée d'air frais »[15].
-Distinctions</t>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Réponse critique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur Rotten Tomatoes, la série a un taux d'approbation de 94% basé sur 17 critiques. Le consensus critique du site Web est : « Doux, poignant et chaleureusement plein d'esprit , Everything's Gonna Be Okay est aussi généreux et nuancé que ses personnages sont bien écris. » Sur Metacritic, il a une note moyenne pondérée de 80 sur 100, basée sur 6 critiques, indiquant « des critiques généralement favorables ». Steve Greene d’IndieWire, passant en revue la première saison, a fait l'éloge de l'empathie narrative de la série et des « instants de grâce » entre les chapitres les plus typiques de la série. Luke Buckmaster de The Guardian était plus prudent, déclarant que la série « manque sa cible » et n'atteint son rythme de croisière qu'après le premier épisode de la saison. Lors de la première des épisodes "Gray Bird Grasshopper" et "Jungle Centipede", le critique Alex Reif de laughingplace.com a fourni des commentaires positifs, notant « ... la force de la série est qu'elle aborde des problèmes graves d’une manière comique », et que la série est « une bouffée d'air frais ».
+</t>
         </is>
       </c>
     </row>
